--- a/MyStoreProject1/target/test-classes/TestData/TestData.xlsx
+++ b/MyStoreProject1/target/test-classes/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naimt\eclipse-workspace\MyStoreProject1\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naimt\git\finalProject22\MyStoreProject1\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Email" sheetId="3" r:id="rId3"/>
     <sheet name="ProductDetails" sheetId="4" r:id="rId4"/>
     <sheet name="SearchProduct" sheetId="5" r:id="rId5"/>
-    <sheet name="AccountCreationDetails" sheetId="6" r:id="rId6"/>
+    <sheet name="AccountCreationData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>My Store Application</t>
   </si>
@@ -202,13 +202,124 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>SetPassword</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MobilePhone</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>UserTest</t>
+  </si>
+  <si>
+    <t>hgsdtyf</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>EDFG123</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>91436</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>8489875678</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>kmnaq123@gmail.com</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>poyte23@yahoo.com</t>
+  </si>
+  <si>
+    <t>lkmnbve@gmail.com</t>
+  </si>
+  <si>
+    <t>utebvcx@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +357,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,10 +404,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,11 +439,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,13 +743,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -866,9 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -899,14 +1024,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -915,9 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -954,18 +1091,18 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>52</v>
+      <c r="A1" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -976,12 +1113,215 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>